--- a/실무_엑셀_예제_파일/Chapter02/02-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-003.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B10E210-8FC0-404D-BDA0-A33C998193FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3495D5F9-541E-498C-BCB7-42484EE8D0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="252" windowWidth="8340" windowHeight="10584" xr2:uid="{8C80AEA9-E2B0-4AA7-94F3-12DC656C2A92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8C80AEA9-E2B0-4AA7-94F3-12DC656C2A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -211,12 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +212,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,245 +536,257 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="6" width="10.09765625" customWidth="1"/>
+    <col min="1" max="1" width="6.9140625" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="6" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>59</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>57</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>92</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <f>AVERAGE(C5:E5)</f>
         <v>69.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>61</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>82</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>83</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <f t="shared" ref="F6:F16" si="0">AVERAGE(C6:E6)</f>
         <v>75.333333333333329</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>49</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>66</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>67</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>75</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>43</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>61.666666666666664</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>93</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>54</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>92</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>94</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>99</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>43</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>47</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>70</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>69</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>75.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5">
-        <v>47</v>
-      </c>
-      <c r="D13" s="5">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <v>80</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>75.666666666666671</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5">
-        <v>79</v>
-      </c>
-      <c r="D14" s="5">
-        <v>70</v>
-      </c>
-      <c r="E14" s="5">
-        <v>69</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>72.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>67</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>46</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
         <v>41</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>43.5</v>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
